--- a/lab3/lab3.xlsx
+++ b/lab3/lab3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\github\PP\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learn\PP\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Поток 1</t>
+    <t>Поток 1 -2</t>
   </si>
   <si>
-    <t>Поток 2</t>
+    <t>Поток 2-2</t>
   </si>
   <si>
-    <t>Разница</t>
+    <t>Поток 1 -1</t>
+  </si>
+  <si>
+    <t>Поток 2 -1</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Поток 1</c:v>
+                  <c:v>Поток 1 -2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -241,64 +244,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>292</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>548</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>805</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1058</c:v>
+                  <c:v>1240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1316</c:v>
+                  <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1570</c:v>
+                  <c:v>1855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1826</c:v>
+                  <c:v>2173</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2081</c:v>
+                  <c:v>2478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2341</c:v>
+                  <c:v>2797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2597</c:v>
+                  <c:v>3095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2851</c:v>
+                  <c:v>3395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3108</c:v>
+                  <c:v>3717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3368</c:v>
+                  <c:v>4040</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3624</c:v>
+                  <c:v>4331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3879</c:v>
+                  <c:v>4626</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4133</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4388</c:v>
+                  <c:v>5248</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4642</c:v>
+                  <c:v>5573</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4897</c:v>
+                  <c:v>5880</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5154</c:v>
+                  <c:v>6175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,7 +317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Поток 2</c:v>
+                  <c:v>Поток 2-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -407,64 +410,260 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>315</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>571</c:v>
+                  <c:v>618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>830</c:v>
+                  <c:v>916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1084</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1341</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1595</c:v>
+                  <c:v>1828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1852</c:v>
+                  <c:v>2125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2106</c:v>
+                  <c:v>2415</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2365</c:v>
+                  <c:v>2702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2623</c:v>
+                  <c:v>2999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2876</c:v>
+                  <c:v>3303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3137</c:v>
+                  <c:v>3619</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3398</c:v>
+                  <c:v>3916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3654</c:v>
+                  <c:v>4213</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3908</c:v>
+                  <c:v>4536</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4162</c:v>
+                  <c:v>4827</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4416</c:v>
+                  <c:v>5138</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4671</c:v>
+                  <c:v>5434</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4925</c:v>
+                  <c:v>5730</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5181</c:v>
+                  <c:v>6030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Поток 1 -1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4709</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7720</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8306</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Поток 2 -1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6574</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7734</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10091</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10740</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11362</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,11 +679,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1644800912"/>
-        <c:axId val="-1644806352"/>
+        <c:axId val="1622129104"/>
+        <c:axId val="1622136720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1644800912"/>
+        <c:axId val="1622129104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +726,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1644806352"/>
+        <c:crossAx val="1622136720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1644806352"/>
+        <c:axId val="1622136720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +785,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1644800912"/>
+        <c:crossAx val="1622129104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1224,14 +1423,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>404811</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>252411</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>560386</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>407986</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1518,323 +1717,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D22"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C3">
-        <v>315</v>
-      </c>
-      <c r="D3">
-        <f>ABS(B3-C3)</f>
-        <v>23</v>
+        <v>327</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>680</v>
+      </c>
+      <c r="G3">
+        <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="C4">
-        <v>571</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D22" si="0">ABS(B4-C4)</f>
-        <v>23</v>
+        <v>618</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1375</v>
+      </c>
+      <c r="G4">
+        <v>1119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>805</v>
+        <v>930</v>
       </c>
       <c r="C5">
-        <v>830</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>916</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1995</v>
+      </c>
+      <c r="G5">
+        <v>1708</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1058</v>
+        <v>1240</v>
       </c>
       <c r="C6">
-        <v>1084</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>1215</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2480</v>
+      </c>
+      <c r="G6">
+        <v>2374</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1316</v>
+        <v>1548</v>
       </c>
       <c r="C7">
-        <v>1341</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1528</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3060</v>
+      </c>
+      <c r="G7">
+        <v>2972</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1570</v>
+        <v>1855</v>
       </c>
       <c r="C8">
-        <v>1595</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1828</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>3607</v>
+      </c>
+      <c r="G8">
+        <v>3582</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1826</v>
+        <v>2173</v>
       </c>
       <c r="C9">
-        <v>1852</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>2125</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>4159</v>
+      </c>
+      <c r="G9">
+        <v>4223</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2081</v>
+        <v>2478</v>
       </c>
       <c r="C10">
-        <v>2106</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>2415</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>4709</v>
+      </c>
+      <c r="G10">
+        <v>4806</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2341</v>
+        <v>2797</v>
       </c>
       <c r="C11">
-        <v>2365</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>2702</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>5358</v>
+      </c>
+      <c r="G11">
+        <v>5322</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2597</v>
+        <v>3095</v>
       </c>
       <c r="C12">
-        <v>2623</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>2999</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>5975</v>
+      </c>
+      <c r="G12">
+        <v>5961</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2851</v>
+        <v>3395</v>
       </c>
       <c r="C13">
-        <v>2876</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>3303</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>6555</v>
+      </c>
+      <c r="G13">
+        <v>6574</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3108</v>
+        <v>3717</v>
       </c>
       <c r="C14">
-        <v>3137</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>3619</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>7101</v>
+      </c>
+      <c r="G14">
+        <v>7154</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3368</v>
+        <v>4040</v>
       </c>
       <c r="C15">
-        <v>3398</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>3916</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>7720</v>
+      </c>
+      <c r="G15">
+        <v>7734</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3624</v>
+        <v>4331</v>
       </c>
       <c r="C16">
-        <v>3654</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>4213</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>8306</v>
+      </c>
+      <c r="G16">
+        <v>8321</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3879</v>
+        <v>4626</v>
       </c>
       <c r="C17">
-        <v>3908</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>4536</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>8882</v>
+      </c>
+      <c r="G17">
+        <v>8899</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4133</v>
+        <v>4933</v>
       </c>
       <c r="C18">
-        <v>4162</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>4827</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>9461</v>
+      </c>
+      <c r="G18">
+        <v>9479</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4388</v>
+        <v>5248</v>
       </c>
       <c r="C19">
-        <v>4416</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>5138</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>10044</v>
+      </c>
+      <c r="G19">
+        <v>10091</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4642</v>
+        <v>5573</v>
       </c>
       <c r="C20">
-        <v>4671</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>5434</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>10602</v>
+      </c>
+      <c r="G20">
+        <v>10740</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4897</v>
+        <v>5880</v>
       </c>
       <c r="C21">
-        <v>4925</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>5730</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>11170</v>
+      </c>
+      <c r="G21">
+        <v>11362</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5154</v>
+        <v>6175</v>
       </c>
       <c r="C22">
-        <v>5181</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>6030</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>11701</v>
+      </c>
+      <c r="G22">
+        <v>11857</v>
       </c>
     </row>
   </sheetData>
